--- a/output_dil+infogest_mir_maltose_noPr.xlsx
+++ b/output_dil+infogest_mir_maltose_noPr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PhD\2nd_year\Analysis\python_scripts\Regression\mir_plsr_maltose_dil+infogest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\PHDVIS1-A5368\PhD\2nd_year\Analysis\python_scripts\Regression\mir_plsr_maltose_dil+infogest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1182F-429D-4456-9507-F63C62A6A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA44AA-2384-4747-993C-B6CCFE7385D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60030" yWindow="2325" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptive_stats" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">calibration_stats_sn!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">calibration_stats_turbid!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">calibration_stats_turbid!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -542,11 +542,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -2576,7 +2588,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:K58" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
       <sortCondition descending="1" ref="J1"/>
     </sortState>
@@ -2589,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
